--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt10a-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt10a-Fzd8.xlsx
@@ -94,7 +94,7 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -534,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.04910500000000001</v>
+        <v>0.1292686666666667</v>
       </c>
       <c r="H2">
-        <v>0.147315</v>
+        <v>0.387806</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="N2">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="O2">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="P2">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="Q2">
-        <v>0.1186584350466667</v>
+        <v>0.2788979239453333</v>
       </c>
       <c r="R2">
-        <v>1.06792591542</v>
+        <v>2.510081315508</v>
       </c>
       <c r="S2">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="T2">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.04910500000000001</v>
+        <v>0.1292686666666667</v>
       </c>
       <c r="H3">
-        <v>0.147315</v>
+        <v>0.387806</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>8.740964</v>
       </c>
       <c r="O3">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="P3">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="Q3">
-        <v>0.1430750124066667</v>
+        <v>0.3766442538871111</v>
       </c>
       <c r="R3">
-        <v>1.28767511166</v>
+        <v>3.389798284984</v>
       </c>
       <c r="S3">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="T3">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04910500000000001</v>
+        <v>0.1292686666666667</v>
       </c>
       <c r="H4">
-        <v>0.147315</v>
+        <v>0.387806</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="N4">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="O4">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="P4">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="Q4">
-        <v>0.001434717153333334</v>
+        <v>0.002454294905333333</v>
       </c>
       <c r="R4">
-        <v>0.01291245438</v>
+        <v>0.022088654148</v>
       </c>
       <c r="S4">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="T4">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.04910500000000001</v>
+        <v>0.1292686666666667</v>
       </c>
       <c r="H5">
-        <v>0.147315</v>
+        <v>0.387806</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="N5">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="O5">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="P5">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="Q5">
-        <v>0.1702186686783334</v>
+        <v>0.1273162789044445</v>
       </c>
       <c r="R5">
-        <v>1.531968018105</v>
+        <v>1.14584651014</v>
       </c>
       <c r="S5">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="T5">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.04910500000000001</v>
+        <v>0.1292686666666667</v>
       </c>
       <c r="H6">
-        <v>0.147315</v>
+        <v>0.387806</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="N6">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O6">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="P6">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="Q6">
-        <v>0.001400360021666667</v>
+        <v>0.0003931060153333333</v>
       </c>
       <c r="R6">
-        <v>0.012603240195</v>
+        <v>0.003537954138</v>
       </c>
       <c r="S6">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="T6">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
     </row>
   </sheetData>
